--- a/Employee_Reports21/Cletes Albert Perera Q0130.xlsx
+++ b/Employee_Reports21/Cletes Albert Perera Q0130.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -884,11 +884,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -930,11 +930,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -966,11 +966,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
